--- a/AssignOpt01_StackFrameDetails.xlsx
+++ b/AssignOpt01_StackFrameDetails.xlsx
@@ -5,31 +5,33 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lk04\AppData\Local\Temp\wzde40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trujamal\Desktop\CS2318_Extra_Credit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6936B394-026C-4593-8200-342A7DDAD8EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3B989-7EDC-4F55-9B21-5EF35AE3B750}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14355" windowHeight="9270" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5712" windowHeight="4548" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="5" r:id="rId1"/>
-    <sheet name="CoutCstrNL" sheetId="20" r:id="rId2"/>
-    <sheet name="PopulateArray" sheetId="22" r:id="rId3"/>
-    <sheet name="ShowArrayLabeled" sheetId="9" r:id="rId4"/>
+    <sheet name="hasDup" sheetId="23" r:id="rId2"/>
+    <sheet name="exists" sheetId="24" r:id="rId3"/>
+    <sheet name="CoutCstrNL" sheetId="20" r:id="rId4"/>
+    <sheet name="PopulateArray" sheetId="22" r:id="rId5"/>
+    <sheet name="ShowArrayLabeled" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CoutCstrNL!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">CoutCstrNL!$A$1:$AB$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">main!$A$1:$V$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PopulateArray!$A$1:$AB$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ShowArrayLabeled!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PopulateArray!$A$1:$AB$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ShowArrayLabeled!$A$1:$AB$59</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="68">
   <si>
     <t>SP (old)</t>
   </si>
@@ -252,12 +254,21 @@
   <si>
     <t>'+'</t>
   </si>
+  <si>
+    <t>arrBegPtr</t>
+  </si>
+  <si>
+    <t>mumEle</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +300,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -382,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -496,6 +515,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +551,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,6 +1013,1092 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8B5285-AF60-4F9E-9EC9-1019211A53A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1501140" y="12504420"/>
+          <a:ext cx="182880" cy="986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2A58D8-BB36-4113-BFEB-3BF4CF000C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-861059" y="7833362"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E21366-1DF7-4D05-A71F-3AEBF3058E5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="369571" y="1946909"/>
+          <a:ext cx="3154682" cy="1501143"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 129643"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F71E6EA-2491-41F3-9C06-C31AB6B80C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5052060" y="7901942"/>
+          <a:ext cx="8496300" cy="1242059"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>587375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319ADD3A-4EA8-4DFA-8FEF-A895F12C081D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6246814" y="1842452"/>
+          <a:ext cx="3154046" cy="1710692"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 129327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD44EF2-5720-43CB-A5C6-C2EAE10584CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8092440" y="7833361"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631A0808-B31B-415D-9225-9F96A6143973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9227820" y="1851660"/>
+          <a:ext cx="3126105" cy="1720216"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130866"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217CFDCE-3745-4F44-810D-5EEE869CD342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2049780" y="7833360"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3177</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF36B27-20E0-4637-B94E-CBC688C06D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3274696" y="1934844"/>
+          <a:ext cx="3135630" cy="1537972"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130897"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0340E2-A13C-4667-83F0-7F1ADD646B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1501140" y="5189220"/>
+          <a:ext cx="187608" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A8F391-AE11-4BD2-AEC8-340BC219821F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1501140" y="12504420"/>
+          <a:ext cx="182880" cy="986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AD7A8E-1A84-4E5C-9513-1944B20506C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-861059" y="7833362"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCAEAEC-7F55-4415-967F-D934D1417623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="369571" y="1946909"/>
+          <a:ext cx="3154682" cy="1501143"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 129643"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D066A357-172F-44E4-B25F-365408B88FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5052060" y="7901942"/>
+          <a:ext cx="8496300" cy="1242059"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>587375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23D53F0-9523-4476-ADB8-C3857BDA75D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6246814" y="1842452"/>
+          <a:ext cx="3154046" cy="1710692"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 129327"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F43D4F5-F43C-43FC-BE8C-37F2C53C5F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8092440" y="7833361"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570F7705-A0F1-4284-A24C-34081CD0984B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9227820" y="1851660"/>
+          <a:ext cx="3126105" cy="1720216"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130866"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28B8720-AE59-475D-BFFB-0EF9C38ECDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2049780" y="7833360"/>
+          <a:ext cx="8496300" cy="1379219"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3177</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFDFA17-7E7D-4CFE-A3A2-9D59FCD7DEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3274696" y="1934844"/>
+          <a:ext cx="3135630" cy="1537972"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130897"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0564CE3D-11CB-4D92-BDA5-8902A733921B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1501140" y="5189220"/>
+          <a:ext cx="187608" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1512,7 +2636,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2055,7 +3179,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2924,34 +4048,36 @@
   </sheetPr>
   <dimension ref="A2:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="2.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="12" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="18" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="18" width="2.6640625" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="D3" s="4"/>
@@ -2968,7 +4094,7 @@
       <c r="T3" s="1"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2992,7 +4118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="D5" s="4"/>
@@ -3008,7 +4134,7 @@
       <c r="N5" s="1"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="12"/>
       <c r="D6" s="4"/>
@@ -3029,7 +4155,7 @@
       <c r="T6" s="15"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="12"/>
       <c r="D7" s="4"/>
@@ -3050,7 +4176,7 @@
       <c r="T7" s="15"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="12"/>
       <c r="D8" s="32"/>
@@ -3075,7 +4201,7 @@
       <c r="T8" s="15"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="12"/>
       <c r="D9" s="32"/>
@@ -3100,7 +4226,7 @@
       <c r="T9" s="15"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>45</v>
       </c>
@@ -3133,7 +4259,7 @@
       <c r="T10" s="15"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>44</v>
       </c>
@@ -3166,7 +4292,7 @@
       <c r="T11" s="15"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>43</v>
       </c>
@@ -3199,7 +4325,7 @@
       <c r="T12" s="15"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>42</v>
       </c>
@@ -3232,7 +4358,7 @@
       <c r="T13" s="15"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>41</v>
       </c>
@@ -3265,7 +4391,7 @@
       <c r="T14" s="15"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>40</v>
       </c>
@@ -3298,7 +4424,7 @@
       <c r="T15" s="15"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>39</v>
       </c>
@@ -3331,7 +4457,7 @@
       <c r="T16" s="15"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>38</v>
       </c>
@@ -3364,7 +4490,7 @@
       <c r="T17" s="15"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>37</v>
       </c>
@@ -3397,7 +4523,7 @@
       <c r="T18" s="15"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>36</v>
       </c>
@@ -3430,7 +4556,7 @@
       <c r="T19" s="15"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>35</v>
       </c>
@@ -3463,7 +4589,7 @@
       <c r="T20" s="15"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>34</v>
       </c>
@@ -3496,7 +4622,7 @@
       <c r="T21" s="15"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>33</v>
       </c>
@@ -3529,7 +4655,7 @@
       <c r="T22" s="15"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>32</v>
       </c>
@@ -3562,7 +4688,7 @@
       <c r="T23" s="15"/>
       <c r="V23" s="32"/>
     </row>
-    <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>31</v>
       </c>
@@ -3596,7 +4722,7 @@
       <c r="S24" s="16"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>30</v>
       </c>
@@ -3627,11 +4753,11 @@
       <c r="R25" s="4"/>
       <c r="S25" s="16"/>
       <c r="T25" s="15"/>
-      <c r="V25" s="36" t="s">
+      <c r="V25" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>29</v>
       </c>
@@ -3663,12 +4789,12 @@
       <c r="S26" s="16">
         <v>207</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="36"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V26" s="41"/>
+    </row>
+    <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>28</v>
       </c>
@@ -3700,10 +4826,10 @@
       <c r="S27" s="16">
         <v>206</v>
       </c>
-      <c r="T27" s="38"/>
+      <c r="T27" s="43"/>
       <c r="V27" s="32"/>
     </row>
-    <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -3735,10 +4861,10 @@
       <c r="S28" s="16">
         <v>205</v>
       </c>
-      <c r="T28" s="38"/>
+      <c r="T28" s="43"/>
       <c r="V28" s="32"/>
     </row>
-    <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -3770,10 +4896,10 @@
       <c r="S29" s="16">
         <v>204</v>
       </c>
-      <c r="T29" s="39"/>
+      <c r="T29" s="44"/>
       <c r="V29" s="32"/>
     </row>
-    <row r="30" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>25</v>
       </c>
@@ -3805,12 +4931,12 @@
       <c r="S30" s="16">
         <v>203</v>
       </c>
-      <c r="T30" s="37" t="s">
+      <c r="T30" s="42" t="s">
         <v>39</v>
       </c>
       <c r="V30" s="32"/>
     </row>
-    <row r="31" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3842,10 +4968,10 @@
       <c r="S31" s="16">
         <v>202</v>
       </c>
-      <c r="T31" s="38"/>
+      <c r="T31" s="43"/>
       <c r="V31" s="32"/>
     </row>
-    <row r="32" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>23</v>
       </c>
@@ -3877,10 +5003,10 @@
       <c r="S32" s="16">
         <v>201</v>
       </c>
-      <c r="T32" s="38"/>
+      <c r="T32" s="43"/>
       <c r="V32" s="32"/>
     </row>
-    <row r="33" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>22</v>
       </c>
@@ -3912,10 +5038,10 @@
       <c r="S33" s="16">
         <v>200</v>
       </c>
-      <c r="T33" s="39"/>
+      <c r="T33" s="44"/>
       <c r="V33" s="32"/>
     </row>
-    <row r="34" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>21</v>
       </c>
@@ -3947,12 +5073,12 @@
       <c r="S34" s="16">
         <v>199</v>
       </c>
-      <c r="T34" s="40" t="s">
+      <c r="T34" s="45" t="s">
         <v>59</v>
       </c>
       <c r="V34" s="32"/>
     </row>
-    <row r="35" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>20</v>
       </c>
@@ -3984,10 +5110,10 @@
       <c r="S35" s="16">
         <v>198</v>
       </c>
-      <c r="T35" s="41"/>
+      <c r="T35" s="46"/>
       <c r="V35" s="32"/>
     </row>
-    <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>19</v>
       </c>
@@ -4019,10 +5145,10 @@
       <c r="S36" s="16">
         <v>197</v>
       </c>
-      <c r="T36" s="41"/>
+      <c r="T36" s="46"/>
       <c r="V36" s="32"/>
     </row>
-    <row r="37" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>18</v>
       </c>
@@ -4054,10 +5180,10 @@
       <c r="S37" s="16">
         <v>196</v>
       </c>
-      <c r="T37" s="45"/>
+      <c r="T37" s="50"/>
       <c r="V37" s="32"/>
     </row>
-    <row r="38" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>17</v>
       </c>
@@ -4086,15 +5212,15 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="T38" s="43" t="s">
+      <c r="T38" s="48" t="s">
         <v>37</v>
       </c>
       <c r="V38" s="32"/>
     </row>
-    <row r="39" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>16</v>
       </c>
@@ -4125,15 +5251,15 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="44"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="49"/>
       <c r="V39" s="32"/>
     </row>
-    <row r="40" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>15</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="4"/>
@@ -4163,16 +5289,16 @@
       <c r="S40" s="16">
         <v>155</v>
       </c>
-      <c r="T40" s="37" t="s">
+      <c r="T40" s="42" t="s">
         <v>38</v>
       </c>
       <c r="V40" s="32"/>
     </row>
-    <row r="41" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>14</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -4198,14 +5324,14 @@
       <c r="S41" s="16">
         <v>154</v>
       </c>
-      <c r="T41" s="38"/>
+      <c r="T41" s="43"/>
       <c r="V41" s="32"/>
     </row>
-    <row r="42" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>13</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="43"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -4231,14 +5357,14 @@
       <c r="S42" s="16">
         <v>153</v>
       </c>
-      <c r="T42" s="38"/>
+      <c r="T42" s="43"/>
       <c r="V42" s="32"/>
     </row>
-    <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>12</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="44"/>
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -4264,16 +5390,16 @@
       <c r="S43" s="16">
         <v>152</v>
       </c>
-      <c r="T43" s="39"/>
+      <c r="T43" s="44"/>
       <c r="V43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>11</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="4"/>
@@ -4301,16 +5427,16 @@
       <c r="S44" s="16">
         <v>151</v>
       </c>
-      <c r="T44" s="40" t="s">
+      <c r="T44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="V44" s="35"/>
-    </row>
-    <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="40"/>
+    </row>
+    <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>10</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -4336,14 +5462,14 @@
       <c r="S45" s="16">
         <v>150</v>
       </c>
-      <c r="T45" s="41"/>
-      <c r="V45" s="35"/>
-    </row>
-    <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T45" s="46"/>
+      <c r="V45" s="40"/>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="43"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -4369,14 +5495,14 @@
       <c r="S46" s="16">
         <v>149</v>
       </c>
-      <c r="T46" s="41"/>
-      <c r="V46" s="35"/>
-    </row>
-    <row r="47" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T46" s="46"/>
+      <c r="V46" s="40"/>
+    </row>
+    <row r="47" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>8</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="44"/>
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -4402,14 +5528,14 @@
       <c r="S47" s="16">
         <v>148</v>
       </c>
-      <c r="T47" s="41"/>
-      <c r="V47" s="35"/>
-    </row>
-    <row r="48" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T47" s="46"/>
+      <c r="V47" s="40"/>
+    </row>
+    <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>7</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4"/>
@@ -4442,11 +5568,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>6</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="43"/>
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -4477,11 +5603,11 @@
       </c>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>5</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="43"/>
       <c r="D50" s="8"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -4512,11 +5638,11 @@
       </c>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>4</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="44"/>
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -4547,11 +5673,11 @@
       </c>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>3</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8"/>
@@ -4584,11 +5710,11 @@
       </c>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="16">
         <v>2</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="43"/>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -4619,11 +5745,11 @@
       </c>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>1</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="43"/>
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -4654,12 +5780,12 @@
       </c>
       <c r="V54" s="4"/>
     </row>
-    <row r="55" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16">
         <v>0</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="D55" s="35" t="s">
+      <c r="B55" s="44"/>
+      <c r="D55" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="7"/>
@@ -4697,10 +5823,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="3"/>
-      <c r="D56" s="35"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -4717,7 +5843,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="12"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -4753,44 +5879,2812 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF6E77D-149F-4FF8-8062-E055CD496F01}">
+  <dimension ref="A1:Z54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="1"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="1"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="V2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="12"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="12"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="12"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="12"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="12"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="12"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="12"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="12"/>
+      <c r="V13" s="4"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="12"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="12"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="12"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="12"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="12"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>31</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>30</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>29</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="12"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>28</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="12"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>27</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="12"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>26</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="12"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="12"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>24</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="12"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>23</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="12"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>22</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="12"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>21</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="12"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>20</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="12"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>19</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="12"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>18</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="12"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>17</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="12"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>16</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="12"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="12"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>15</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="12"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>14</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="12"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>13</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="12"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="16">
+        <v>12</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="12"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="12"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>11</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="12"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="12"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="16">
+        <v>10</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="12"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="12"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="12"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="12"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="12"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="12"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>8</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="12"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="12"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="12"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="16">
+        <v>7</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="12"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="12"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>6</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="12"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="12"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="12"/>
+    </row>
+    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="16">
+        <v>5</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="12"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="12"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="16">
+        <v>4</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="12"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="12"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="12"/>
+    </row>
+    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="16">
+        <v>3</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="12"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="12"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="12"/>
+    </row>
+    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="16">
+        <v>2</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="12"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="12"/>
+    </row>
+    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="16">
+        <v>1</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="12"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="12"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="12"/>
+    </row>
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="16">
+        <v>0</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="D52" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="12"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="12"/>
+    </row>
+    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="12"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="12"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="12"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="12"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="B37:B40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA9A9AE-FD7D-4B57-8792-2417F643545D}">
+  <dimension ref="A1:Z54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="1"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="1"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="73.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="V2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="12"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="12"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="12"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="12"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="12"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="12"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="12"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="12"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="12"/>
+      <c r="V13" s="4"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="12"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="12"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="12"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="12"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12"/>
+      <c r="D20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="12"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>31</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>30</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>29</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="12"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>28</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="12"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>27</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="12"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>26</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="12"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="12"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>24</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="12"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>23</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="12"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>22</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="12"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>21</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="12"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>20</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="12"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>19</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="12"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>18</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="12"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>17</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="12"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>16</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="12"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="12"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>15</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="12"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>14</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="12"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>13</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="12"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="16">
+        <v>12</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="12"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="12"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>11</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="12"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="12"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="16">
+        <v>10</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="12"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="12"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="12"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>9</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="12"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="12"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="12"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>8</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="12"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="12"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="12"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="16">
+        <v>7</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="12"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="12"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="12"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>6</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="12"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="12"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="12"/>
+    </row>
+    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="16">
+        <v>5</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="12"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="12"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="16">
+        <v>4</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="12"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="12"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="12"/>
+    </row>
+    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="16">
+        <v>3</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="12"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="12"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="12"/>
+    </row>
+    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="16">
+        <v>2</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="12"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="12"/>
+    </row>
+    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="16">
+        <v>1</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="12"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="12"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="12"/>
+    </row>
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="16">
+        <v>0</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="D52" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="12"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="12"/>
+    </row>
+    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
+      <c r="B53" s="3"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="12"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="12"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="12"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="12"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="B37:B40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="2.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.6640625" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.6640625" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="G2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="D3" s="4"/>
@@ -4810,7 +8704,7 @@
       <c r="Z3" s="1"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +8740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="D5" s="4"/>
@@ -4866,7 +8760,7 @@
       <c r="Z5" s="1"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="D6" s="4"/>
@@ -4891,7 +8785,7 @@
       <c r="Z6" s="12"/>
       <c r="AB6" s="21"/>
     </row>
-    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="D7" s="4"/>
@@ -4916,7 +8810,7 @@
       <c r="Z7" s="12"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="D8" s="4"/>
@@ -4941,7 +8835,7 @@
       <c r="Z8" s="12"/>
       <c r="AB8" s="21"/>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="12"/>
       <c r="D9" s="4"/>
@@ -4966,7 +8860,7 @@
       <c r="Z9" s="12"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="12"/>
       <c r="D10" s="4"/>
@@ -4991,7 +8885,7 @@
       <c r="Z10" s="12"/>
       <c r="AB10" s="21"/>
     </row>
-    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="D11" s="4"/>
@@ -5016,7 +8910,7 @@
       <c r="Z11" s="12"/>
       <c r="AB11" s="21"/>
     </row>
-    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="12"/>
       <c r="D12" s="4"/>
@@ -5041,7 +8935,7 @@
       <c r="Z12" s="12"/>
       <c r="AB12" s="21"/>
     </row>
-    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="12"/>
       <c r="D13" s="4"/>
@@ -5066,7 +8960,7 @@
       <c r="Z13" s="12"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="12"/>
       <c r="D14" s="4"/>
@@ -5091,7 +8985,7 @@
       <c r="Z14" s="12"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="12"/>
       <c r="D15" s="4"/>
@@ -5113,7 +9007,7 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="D16" s="4"/>
@@ -5136,9 +9030,9 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="12"/>
-      <c r="AB16" s="36"/>
-    </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="12"/>
       <c r="D17" s="4"/>
@@ -5161,9 +9055,9 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="12"/>
-      <c r="AB17" s="36"/>
-    </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="12"/>
       <c r="D18" s="4"/>
@@ -5188,7 +9082,7 @@
       <c r="Z18" s="12"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="12"/>
       <c r="D19" s="4"/>
@@ -5213,7 +9107,7 @@
       <c r="Z19" s="12"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="12"/>
       <c r="D20" s="4"/>
@@ -5238,7 +9132,7 @@
       <c r="Z20" s="12"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="12"/>
       <c r="D21" s="4"/>
@@ -5263,10 +9157,10 @@
       <c r="Z21" s="12"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="12"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="41" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
@@ -5290,14 +9184,14 @@
       <c r="Z22" s="12"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>31</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="16"/>
@@ -5319,11 +9213,11 @@
       <c r="Z23" s="12"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="43"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5346,11 +9240,11 @@
       <c r="Z24" s="12"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>29</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="43"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5373,11 +9267,11 @@
       <c r="Z25" s="12"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="44"/>
       <c r="D26" s="4"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -5400,11 +9294,11 @@
       <c r="Z26" s="12"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="4"/>
@@ -5429,11 +9323,11 @@
       <c r="Z27" s="12"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="43"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5456,11 +9350,11 @@
       <c r="Z28" s="12"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="43"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -5483,11 +9377,11 @@
       <c r="Z29" s="12"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5510,7 +9404,7 @@
       <c r="Z30" s="12"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>23</v>
       </c>
@@ -5533,11 +9427,11 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="47"/>
       <c r="Z31" s="12"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>22</v>
       </c>
@@ -5560,11 +9454,11 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="47"/>
       <c r="Z32" s="12"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>21</v>
       </c>
@@ -5591,7 +9485,7 @@
       <c r="Z33" s="12"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>20</v>
       </c>
@@ -5618,7 +9512,7 @@
       <c r="Z34" s="12"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>19</v>
       </c>
@@ -5645,7 +9539,7 @@
       <c r="Z35" s="12"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>18</v>
       </c>
@@ -5672,7 +9566,7 @@
       <c r="Z36" s="12"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>17</v>
       </c>
@@ -5695,11 +9589,11 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="47"/>
       <c r="Z37" s="12"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>16</v>
       </c>
@@ -5722,15 +9616,15 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="47"/>
       <c r="Z38" s="12"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -5755,11 +9649,11 @@
       <c r="Z39" s="12"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="43"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -5782,11 +9676,11 @@
       <c r="Z40" s="12"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -5809,11 +9703,11 @@
       <c r="Z41" s="12"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="44"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -5836,11 +9730,11 @@
       <c r="Z42" s="12"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -5865,11 +9759,11 @@
       <c r="Z43" s="12"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="43"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5892,11 +9786,11 @@
       <c r="Z44" s="12"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -5919,11 +9813,11 @@
       <c r="Z45" s="12"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -5946,11 +9840,11 @@
       <c r="Z46" s="12"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -5975,11 +9869,11 @@
       <c r="Z47" s="12"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="43"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -6002,11 +9896,11 @@
       <c r="Z48" s="12"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="43"/>
       <c r="D49" s="21"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -6029,11 +9923,11 @@
       <c r="Z49" s="12"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="44"/>
       <c r="D50" s="21"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -6056,11 +9950,11 @@
       <c r="Z50" s="12"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="21"/>
@@ -6085,11 +9979,11 @@
       <c r="Z51" s="12"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="43"/>
       <c r="D52" s="21"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -6112,11 +10006,11 @@
       <c r="Z52" s="12"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="43"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -6139,12 +10033,12 @@
       <c r="Z53" s="12"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="44"/>
+      <c r="D54" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -6168,10 +10062,10 @@
       <c r="Z54" s="12"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -6189,23 +10083,23 @@
       <c r="Y55" s="16"/>
       <c r="Z55" s="12"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y37:Y38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -6217,45 +10111,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="2.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.6640625" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.6640625" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="G2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="D3" s="4"/>
@@ -6275,7 +10169,7 @@
       <c r="Z3" s="1"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -6311,7 +10205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="D5" s="4"/>
@@ -6331,7 +10225,7 @@
       <c r="Z5" s="1"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="12"/>
       <c r="D6" s="4"/>
@@ -6356,7 +10250,7 @@
       <c r="Z6" s="12"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>47</v>
       </c>
@@ -6385,7 +10279,7 @@
       <c r="Z7" s="12"/>
       <c r="AB7" s="29"/>
     </row>
-    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>46</v>
       </c>
@@ -6414,7 +10308,7 @@
       <c r="Z8" s="12"/>
       <c r="AB8" s="29"/>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>45</v>
       </c>
@@ -6447,7 +10341,7 @@
       <c r="Z9" s="12"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>44</v>
       </c>
@@ -6480,7 +10374,7 @@
       <c r="Z10" s="12"/>
       <c r="AB10" s="29"/>
     </row>
-    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>43</v>
       </c>
@@ -6513,7 +10407,7 @@
       <c r="Z11" s="12"/>
       <c r="AB11" s="29"/>
     </row>
-    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>42</v>
       </c>
@@ -6546,7 +10440,7 @@
       <c r="Z12" s="12"/>
       <c r="AB12" s="29"/>
     </row>
-    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>41</v>
       </c>
@@ -6579,7 +10473,7 @@
       <c r="Z13" s="12"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>40</v>
       </c>
@@ -6614,7 +10508,7 @@
       <c r="Z14" s="12"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>39</v>
       </c>
@@ -6644,7 +10538,7 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>38</v>
       </c>
@@ -6675,9 +10569,9 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="15"/>
-      <c r="AB16" s="36"/>
-    </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -6708,9 +10602,9 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="15"/>
-      <c r="AB17" s="36"/>
-    </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>36</v>
       </c>
@@ -6743,7 +10637,7 @@
       <c r="Z18" s="15"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>35</v>
       </c>
@@ -6776,7 +10670,7 @@
       <c r="Z19" s="15"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>34</v>
       </c>
@@ -6809,7 +10703,7 @@
       <c r="Z20" s="15"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>33</v>
       </c>
@@ -6842,7 +10736,7 @@
       <c r="Z21" s="15"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>32</v>
       </c>
@@ -6875,7 +10769,7 @@
       <c r="Z22" s="15"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>31</v>
       </c>
@@ -6908,7 +10802,7 @@
       <c r="Z23" s="15"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>30</v>
       </c>
@@ -6941,7 +10835,7 @@
       <c r="Z24" s="15"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>29</v>
       </c>
@@ -6974,7 +10868,7 @@
       <c r="Z25" s="15"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>28</v>
       </c>
@@ -7007,7 +10901,7 @@
       <c r="Z26" s="15"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -7040,7 +10934,7 @@
       <c r="Z27" s="15"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -7061,7 +10955,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="16"/>
       <c r="N28" s="15"/>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="41" t="s">
         <v>0</v>
       </c>
       <c r="Q28" s="4"/>
@@ -7075,7 +10969,7 @@
       <c r="Z28" s="15"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -7097,10 +10991,10 @@
       <c r="M29" s="16">
         <v>119</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="36"/>
+      <c r="P29" s="41"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="16"/>
@@ -7112,7 +11006,7 @@
       <c r="Z29" s="15"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>24</v>
       </c>
@@ -7136,7 +11030,7 @@
       <c r="M30" s="16">
         <v>118</v>
       </c>
-      <c r="N30" s="38"/>
+      <c r="N30" s="43"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -7149,12 +11043,12 @@
       <c r="Z30" s="15"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="D31" s="35" t="s">
+      <c r="B31" s="42"/>
+      <c r="D31" s="40" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="6"/>
@@ -7171,7 +11065,7 @@
       <c r="M31" s="16">
         <v>117</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="43"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -7180,16 +11074,16 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="47"/>
       <c r="Z31" s="15"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="43"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="16">
@@ -7204,7 +11098,7 @@
       <c r="M32" s="16">
         <v>116</v>
       </c>
-      <c r="N32" s="39"/>
+      <c r="N32" s="44"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -7213,16 +11107,16 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="47"/>
       <c r="Z32" s="15"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>21</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="43"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="16">
@@ -7237,7 +11131,7 @@
       <c r="M33" s="16">
         <v>115</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="42" t="s">
         <v>39</v>
       </c>
       <c r="P33" s="4"/>
@@ -7252,12 +11146,12 @@
       <c r="Z33" s="15"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>20</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="44"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="16">
@@ -7272,7 +11166,7 @@
       <c r="M34" s="16">
         <v>114</v>
       </c>
-      <c r="N34" s="38"/>
+      <c r="N34" s="43"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -7285,14 +11179,14 @@
       <c r="Z34" s="15"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>19</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="6"/>
@@ -7309,7 +11203,7 @@
       <c r="M35" s="16">
         <v>113</v>
       </c>
-      <c r="N35" s="38"/>
+      <c r="N35" s="43"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -7322,12 +11216,12 @@
       <c r="Z35" s="15"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>18</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="43"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="16">
@@ -7342,7 +11236,7 @@
       <c r="M36" s="16">
         <v>112</v>
       </c>
-      <c r="N36" s="39"/>
+      <c r="N36" s="44"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -7355,12 +11249,12 @@
       <c r="Z36" s="15"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>17</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="43"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="16">
@@ -7386,16 +11280,16 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="47"/>
       <c r="Z37" s="15"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>16</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="44"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="16">
@@ -7421,15 +11315,15 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="47"/>
       <c r="Z38" s="15"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -7462,11 +11356,11 @@
       <c r="Z39" s="15"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="43"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -7497,11 +11391,11 @@
       <c r="Z40" s="15"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -7532,11 +11426,11 @@
       <c r="Z41" s="15"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="44"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -7567,11 +11461,11 @@
       <c r="Z42" s="15"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -7604,11 +11498,11 @@
       <c r="Z43" s="15"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="43"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -7639,11 +11533,11 @@
       <c r="Z44" s="15"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -7674,11 +11568,11 @@
       <c r="Z45" s="15"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -7709,11 +11603,11 @@
       <c r="Z46" s="15"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -7746,11 +11640,11 @@
       <c r="Z47" s="15"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="43"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -7781,11 +11675,11 @@
       <c r="Z48" s="15"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="43"/>
       <c r="D49" s="29"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -7816,11 +11710,11 @@
       <c r="Z49" s="15"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="44"/>
       <c r="D50" s="29"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -7851,11 +11745,11 @@
       <c r="Z50" s="15"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="29"/>
@@ -7888,11 +11782,11 @@
       <c r="Z51" s="15"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="43"/>
       <c r="D52" s="29"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -7923,11 +11817,11 @@
       <c r="Z52" s="15"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="43"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -7958,12 +11852,12 @@
       <c r="Z53" s="15"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="44"/>
+      <c r="D54" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -7999,10 +11893,10 @@
       <c r="Z54" s="15"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -8020,7 +11914,7 @@
       <c r="Y55" s="16"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
@@ -8052,45 +11946,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB56"/>
+  <dimension ref="A2:AE56"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="2.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.6640625" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="2.6640625" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="G2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="D3" s="4"/>
@@ -8110,7 +12006,7 @@
       <c r="Z3" s="1"/>
       <c r="AB3" s="4"/>
     </row>
-    <row r="4" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -8146,7 +12042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="D5" s="4"/>
@@ -8166,7 +12062,7 @@
       <c r="Z5" s="1"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="D6" s="4"/>
@@ -8191,7 +12087,7 @@
       <c r="Z6" s="12"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="D7" s="4"/>
@@ -8216,7 +12112,7 @@
       <c r="Z7" s="12"/>
       <c r="AB7" s="10"/>
     </row>
-    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="D8" s="4"/>
@@ -8241,7 +12137,7 @@
       <c r="Z8" s="12"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="12"/>
       <c r="D9" s="4"/>
@@ -8266,7 +12162,7 @@
       <c r="Z9" s="12"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="12"/>
       <c r="D10" s="4"/>
@@ -8291,7 +12187,7 @@
       <c r="Z10" s="12"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="D11" s="4"/>
@@ -8316,7 +12212,7 @@
       <c r="Z11" s="12"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="12"/>
       <c r="D12" s="4"/>
@@ -8341,7 +12237,7 @@
       <c r="Z12" s="12"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="12"/>
       <c r="D13" s="4"/>
@@ -8366,7 +12262,7 @@
       <c r="Z13" s="12"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="12"/>
       <c r="D14" s="4"/>
@@ -8391,7 +12287,7 @@
       <c r="Z14" s="12"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="12"/>
       <c r="D15" s="4"/>
@@ -8413,7 +12309,7 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="12"/>
       <c r="D16" s="4"/>
@@ -8436,9 +12332,9 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="12"/>
-      <c r="AB16" s="36"/>
-    </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="12"/>
       <c r="D17" s="4"/>
@@ -8461,9 +12357,9 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="12"/>
-      <c r="AB17" s="36"/>
-    </row>
-    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="12"/>
       <c r="D18" s="4"/>
@@ -8488,7 +12384,7 @@
       <c r="Z18" s="12"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="12"/>
       <c r="D19" s="4"/>
@@ -8513,7 +12409,7 @@
       <c r="Z19" s="12"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="12"/>
       <c r="D20" s="4"/>
@@ -8538,7 +12434,7 @@
       <c r="Z20" s="12"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="12"/>
       <c r="D21" s="4"/>
@@ -8563,10 +12459,10 @@
       <c r="Z21" s="12"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="12"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="41" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
@@ -8590,14 +12486,14 @@
       <c r="Z22" s="12"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>31</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="16"/>
@@ -8619,11 +12515,11 @@
       <c r="Z23" s="12"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="43"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -8646,11 +12542,11 @@
       <c r="Z24" s="12"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>29</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="43"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -8673,11 +12569,11 @@
       <c r="Z25" s="12"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="44"/>
       <c r="D26" s="4"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -8700,11 +12596,11 @@
       <c r="Z26" s="12"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="4"/>
@@ -8729,11 +12625,11 @@
       <c r="Z27" s="12"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="43"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -8756,11 +12652,11 @@
       <c r="Z28" s="12"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="43"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -8783,11 +12679,11 @@
       <c r="Z29" s="12"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -8810,7 +12706,7 @@
       <c r="Z30" s="12"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>23</v>
       </c>
@@ -8833,11 +12729,11 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="47"/>
       <c r="Z31" s="12"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>22</v>
       </c>
@@ -8860,11 +12756,11 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="47"/>
       <c r="Z32" s="12"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>21</v>
       </c>
@@ -8891,7 +12787,7 @@
       <c r="Z33" s="12"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>20</v>
       </c>
@@ -8918,7 +12814,7 @@
       <c r="Z34" s="12"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>19</v>
       </c>
@@ -8945,7 +12841,7 @@
       <c r="Z35" s="12"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>18</v>
       </c>
@@ -8972,7 +12868,7 @@
       <c r="Z36" s="12"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>17</v>
       </c>
@@ -8995,11 +12891,11 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="47"/>
       <c r="Z37" s="12"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>16</v>
       </c>
@@ -9022,15 +12918,15 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="47"/>
       <c r="Z38" s="12"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -9055,11 +12951,11 @@
       <c r="Z39" s="12"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="43"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -9082,11 +12978,11 @@
       <c r="Z40" s="12"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -9109,11 +13005,11 @@
       <c r="Z41" s="12"/>
       <c r="AB41" s="4"/>
     </row>
-    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="44"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -9136,11 +13032,11 @@
       <c r="Z42" s="12"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -9165,11 +13061,11 @@
       <c r="Z43" s="12"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="43"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -9192,11 +13088,11 @@
       <c r="Z44" s="12"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -9219,11 +13115,11 @@
       <c r="Z45" s="12"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="44"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -9246,11 +13142,11 @@
       <c r="Z46" s="12"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -9275,11 +13171,11 @@
       <c r="Z47" s="12"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="43"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -9302,11 +13198,11 @@
       <c r="Z48" s="12"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="43"/>
       <c r="D49" s="10"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -9329,11 +13225,11 @@
       <c r="Z49" s="12"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="44"/>
       <c r="D50" s="10"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -9356,11 +13252,11 @@
       <c r="Z50" s="12"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10"/>
@@ -9385,11 +13281,11 @@
       <c r="Z51" s="12"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="43"/>
       <c r="D52" s="10"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -9411,12 +13307,16 @@
       <c r="Y52" s="16"/>
       <c r="Z52" s="12"/>
       <c r="AB52" s="4"/>
-    </row>
-    <row r="53" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AE52">
+        <f>S48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="43"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -9439,12 +13339,12 @@
       <c r="Z53" s="12"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="44"/>
+      <c r="D54" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -9468,10 +13368,10 @@
       <c r="Z54" s="12"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -9489,7 +13389,7 @@
       <c r="Y55" s="16"/>
       <c r="Z55" s="12"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
